--- a/Data/meta data.xlsx
+++ b/Data/meta data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkuehn/Documents/Writing/Kuehn et al. Psych Bull/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkuehn/Documents/Writing/Kuehn et al. Psych Bull/NA-SITB_meta/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F05375-E084-BF49-82CF-3F237E6183C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACD01B-0CC3-E44B-9B67-A1630C221946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="22080" windowHeight="16160" activeTab="1" xr2:uid="{880B214C-5342-B74E-800F-E889410F87A4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{880B214C-5342-B74E-800F-E889410F87A4}"/>
   </bookViews>
   <sheets>
     <sheet name="ES" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={76961C01-9F51-FA45-9038-43CE9FA57D69}</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{76961C01-9F51-FA45-9038-43CE9FA57D69}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selby includes Kranzer et al., Fitzpatrick et al., 2020; Sellby et al, 2013 and Hughes et al (4 studies using 1 dataset)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>Study</t>
   </si>
@@ -94,6 +112,51 @@
   </si>
   <si>
     <t>Kuehn et al., In Prep</t>
+  </si>
+  <si>
+    <t>Victor et al., 2018</t>
+  </si>
+  <si>
+    <t>Selby et al., 2013</t>
+  </si>
+  <si>
+    <t>Kaurin et al., Under Review</t>
+  </si>
+  <si>
+    <t>Suicidal thoughts_C</t>
+  </si>
+  <si>
+    <t>Czyz et al. 2017</t>
+  </si>
+  <si>
+    <t>Forkmann et al 2018</t>
+  </si>
+  <si>
+    <t>k (# of studies)</t>
+  </si>
+  <si>
+    <t>Vine</t>
+  </si>
+  <si>
+    <t>Kleiman</t>
+  </si>
+  <si>
+    <t>.0.5520179</t>
+  </si>
+  <si>
+    <t>Peters et al</t>
+  </si>
+  <si>
+    <t>Kiekens et al</t>
+  </si>
+  <si>
+    <t>Kaurin et al., Under Review a</t>
+  </si>
+  <si>
+    <t>Kaurin et al., Under Review b</t>
+  </si>
+  <si>
+    <t>Peters et al., 2020</t>
   </si>
 </sst>
 </file>
@@ -150,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -160,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,6 +242,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kevin S Kuehn" id="{B1F5F0C1-7B25-244B-91BA-336BE7047CD5}" userId="S::kskuehn@uw.edu::010fbca8-fd27-4e9e-8a28-acc098925cb8" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,22 +545,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A8" dT="2020-08-23T06:55:37.73" personId="{B1F5F0C1-7B25-244B-91BA-336BE7047CD5}" id="{76961C01-9F51-FA45-9038-43CE9FA57D69}">
+    <text>Selby includes Kranzer et al., Fitzpatrick et al., 2020; Sellby et al, 2013 and Hughes et al (4 studies using 1 dataset)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5C979C-6354-504E-AC51-5389C06BDCBD}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5C979C-6354-504E-AC51-5389C06BDCBD}">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="14" width="12.83203125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>9</v>
@@ -540,34 +620,34 @@
         <v>67</v>
       </c>
       <c r="C2" s="2">
-        <v>0.43322379999999999</v>
+        <v>0.42502830000000003</v>
       </c>
       <c r="D2" s="2">
-        <v>2.514305E-2</v>
+        <v>2.5142999999999999E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4281604</v>
+        <v>0.42006070000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>-4.65E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.55894699999999997</v>
+        <v>-4.3112350000000001E-3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="2">
         <v>-1.029612</v>
       </c>
       <c r="I2" s="2">
-        <v>0.13698070000000001</v>
+        <v>0.2041647</v>
       </c>
       <c r="J2" s="2">
-        <v>0.34683229999999998</v>
+        <v>0.26805610000000002</v>
       </c>
       <c r="K2" s="2">
         <v>8.4518889999999999E-2</v>
       </c>
       <c r="L2" s="2">
-        <v>0.20807249999999999</v>
+        <v>0.1847645</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>15</v>
@@ -599,7 +679,7 @@
         <v>0.97713629999999996</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.10578029999999999</v>
+        <v>-0.54386190000000001</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -640,10 +720,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="2">
-        <v>0.97496369999999999</v>
+        <v>0.98255559999999997</v>
       </c>
       <c r="H4" s="2">
-        <v>-8.8551589999999999E-2</v>
+        <v>4.3840759999999999E-2</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -687,7 +767,7 @@
         <v>0.37370320000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>0.1789868</v>
+        <v>9.3177880000000005E-2</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -715,21 +795,50 @@
       <c r="B6" s="2">
         <v>60</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="C6" s="2">
+        <v>0.41610449999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-5.221201E-3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.359405</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.84524520000000003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.764374</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-8.2507369999999997E-2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>62</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -744,7 +853,12 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>47</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -759,37 +873,100 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>191</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.86737379999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.8116840000000001E-2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>193</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0163450000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-5.300846E-2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>34</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -804,7 +981,12 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>74</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -819,7 +1001,12 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>162</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -834,6 +1021,9 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -849,22 +1039,36 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>39</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2">
+        <v>0.98382639999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-3.4871470000000002E-2</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -878,7 +1082,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -893,11 +1097,8 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <f>SUM(B2:B16)</f>
-        <v>320</v>
-      </c>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -911,8 +1112,14 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <f>SUM(B2,B3,B4,B5,B6,B9,B10,B15)</f>
+        <v>743</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -926,22 +1133,51 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -956,7 +1192,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -971,17 +1207,33 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F0A8E3-0156-0F47-9AC8-954D630965F3}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,6 +1324,71 @@
         <v>0.44013570000000002</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-7.821873E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1693095</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.38912730000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>192</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.523683E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.13980919999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.0988039999999999E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.452975E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9.496071E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.5919409999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/meta data.xlsx
+++ b/Data/meta data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkuehn/Documents/Writing/Kuehn et al. Psych Bull/NA-SITB_meta/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACD01B-0CC3-E44B-9B67-A1630C221946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7846F11B-EF35-2043-94D2-CDFAB8CC5864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{880B214C-5342-B74E-800F-E889410F87A4}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
   <si>
     <t>Study</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Vine</t>
   </si>
   <si>
-    <t>Kleiman</t>
-  </si>
-  <si>
     <t>.0.5520179</t>
   </si>
   <si>
@@ -157,6 +154,33 @@
   </si>
   <si>
     <t>Peters et al., 2020</t>
+  </si>
+  <si>
+    <t>Czyz et al</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleiman et al., </t>
+  </si>
+  <si>
+    <t>NSSI behaviors_C</t>
+  </si>
+  <si>
+    <t>Koenig et al., 2020</t>
+  </si>
+  <si>
+    <t>Selby and Joiner, 2018</t>
+  </si>
+  <si>
+    <t>Selby 2013</t>
+  </si>
+  <si>
+    <t>Selby and Joiner 2018</t>
+  </si>
+  <si>
+    <t>Kiekens et al., 2020</t>
   </si>
 </sst>
 </file>
@@ -213,19 +237,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5C979C-6354-504E-AC51-5389C06BDCBD}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,47 +595,47 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -616,43 +643,43 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>67</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>0.42502830000000003</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>2.5142999999999999E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>0.42006070000000001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>-4.3112350000000001E-3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6">
         <v>-1.029612</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>0.2041647</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="6">
         <v>0.26805610000000002</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="6">
         <v>8.4518889999999999E-2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="6">
         <v>0.1847645</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -660,43 +687,43 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.97713629999999996</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>-0.54386190000000001</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -704,43 +731,43 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.98255559999999997</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>4.3840759999999999E-2</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -748,43 +775,43 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>131</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6">
         <v>0.37370320000000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>9.3177880000000005E-2</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -792,43 +819,43 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>60</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0.41610449999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>-5.221201E-3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6">
         <v>1.359405</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>-0.84524520000000003</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>0.764374</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <v>-8.2507369999999997E-2</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -836,83 +863,107 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>62</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>47</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.001663</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-6.950452E-2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2">
-        <v>191</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.86737379999999997</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2.8116840000000001E-2</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.18237300000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.2779859999999999E-2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.1589892</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1.863424E-2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -920,292 +971,418 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
-        <v>193</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.0163450000000001</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-5.300846E-2</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="B10" s="6">
+        <v>191</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.86737379999999997</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.8116840000000001E-2</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>193</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.0163450000000001</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-5.300846E-2</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2">
-        <v>74</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.89073190000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.25693670000000002</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.89885559999999998</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-9.0289259999999996E-4</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2">
-        <v>162</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>74</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="6">
+        <v>162</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>0.98382639999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <v>-3.4871470000000002E-2</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.98382639999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>-3.4871470000000002E-2</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="B17" s="6">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.75629590000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.048018E-2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6">
+        <v>-0.12993289999999999</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-0.104045</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.9639420000000001</v>
+      </c>
+      <c r="J17" s="6">
+        <v>-4.8485880000000002E-2</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6">
+        <v>73</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.0822769999999999</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-0.21463869999999999</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <f>SUM(B2,B3,B4,B5,B6,B9,B10,B15)</f>
-        <v>743</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="6">
+        <f>SUM(B2,B3,B4,B5,B6,,B8, B9, B10,B11,, B12, B16, B17, B18)</f>
+        <v>974</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="B22" s="6">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="G22" s="6">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6">
+        <v>7</v>
+      </c>
+      <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M22" s="6">
         <v>0</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
@@ -1222,6 +1399,69 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <f>AVERAGE(C2,C6,C9, C17)</f>
+        <v>0.44495042500000004</v>
+      </c>
+      <c r="D25" s="6">
+        <f>AVERAGE(D2,D6,D9, D17)</f>
+        <v>1.3295459749999999E-2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6">
+        <f>AVERAGE(G2:G6,G8,G9,G12, G17, G18)</f>
+        <v>0.74405869999999985</v>
+      </c>
+      <c r="H25" s="6">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H8,H9, H12, H17, H18)</f>
+        <v>-0.24315862200000007</v>
+      </c>
+      <c r="I25" s="6">
+        <f>AVERAGE(I2,I6,I10:I12,I16, I17)</f>
+        <v>0.95698307142857153</v>
+      </c>
+      <c r="J25" s="6">
+        <f>AVERAGE(J2,J6,J10:J12,J16, J17)</f>
+        <v>1.0913838200000001E-2</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1230,59 +1470,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F0A8E3-0156-0F47-9AC8-954D630965F3}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="86" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="86" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1355,7 +1595,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>192</v>
@@ -1369,7 +1609,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1">
         <v>1.0988039999999999E-2</v>
@@ -1380,13 +1620,110 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1">
         <v>9.496071E-3</v>
       </c>
       <c r="J9" s="1">
         <v>1.5919409999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.29120600000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.21143909999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.11737259999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.11817999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.1074715</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-5.3136640000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1.3297710000000001E-2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.1029456</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-5.5242479999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.3576159999999997E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1.7024899999999999E-2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.14194960000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.422463E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.7754880000000001E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.825254E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/meta data.xlsx
+++ b/Data/meta data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkuehn/Documents/Writing/Kuehn et al. Psych Bull/NA-SITB_meta/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7846F11B-EF35-2043-94D2-CDFAB8CC5864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B90D64-9AF2-7E45-ABE6-F9CAFFADC7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{880B214C-5342-B74E-800F-E889410F87A4}"/>
   </bookViews>

--- a/Data/meta data.xlsx
+++ b/Data/meta data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkuehn/Documents/Writing/Kuehn et al. Psych Bull/NA-SITB_meta/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B90D64-9AF2-7E45-ABE6-F9CAFFADC7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBCDDE-C023-E14D-B8F0-D55AF23BAE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{880B214C-5342-B74E-800F-E889410F87A4}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16100" xr2:uid="{880B214C-5342-B74E-800F-E889410F87A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="ES" sheetId="1" r:id="rId1"/>
-    <sheet name="Invariance weights" sheetId="2" r:id="rId2"/>
+    <sheet name="meta data" sheetId="1" r:id="rId1"/>
+    <sheet name="Weighted ES" sheetId="3" r:id="rId2"/>
+    <sheet name="Invariance weights" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,8 +52,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={443AAAE8-28A5-9449-A869-A6ADAEBFA306}</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{443AAAE8-28A5-9449-A869-A6ADAEBFA306}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selby includes Kranzer et al., Fitzpatrick et al., 2020; Sellby et al, 2013 and Hughes et al (4 studies using 1 dataset)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="60">
   <si>
     <t>Study</t>
   </si>
@@ -132,15 +151,9 @@
     <t>Forkmann et al 2018</t>
   </si>
   <si>
-    <t>k (# of studies)</t>
-  </si>
-  <si>
     <t>Vine</t>
   </si>
   <si>
-    <t>.0.5520179</t>
-  </si>
-  <si>
     <t>Peters et al</t>
   </si>
   <si>
@@ -159,9 +172,6 @@
     <t>Czyz et al</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kleiman et al., </t>
   </si>
   <si>
@@ -181,6 +191,66 @@
   </si>
   <si>
     <t>Kiekens et al., 2020</t>
+  </si>
+  <si>
+    <t>Scala et  al.</t>
+  </si>
+  <si>
+    <t>Victor and Klonsky, 2014</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Forkmann et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine et al. </t>
+  </si>
+  <si>
+    <t>Kleiman et al.</t>
+  </si>
+  <si>
+    <t>Scala et al.</t>
+  </si>
+  <si>
+    <t>SP_NSSI thoughts_A</t>
+  </si>
+  <si>
+    <t>SP_NSSI thoughts_C</t>
+  </si>
+  <si>
+    <t>SP_NSSI urges_A</t>
+  </si>
+  <si>
+    <t>SP_NSSI urges_C</t>
+  </si>
+  <si>
+    <t>SP_NSSI behaviors_A</t>
+  </si>
+  <si>
+    <t>SP_NSSI behaviors_C</t>
+  </si>
+  <si>
+    <t>SP_Suicidal thoughts_A</t>
+  </si>
+  <si>
+    <t>SP_Suicidal thoughts_C</t>
+  </si>
+  <si>
+    <t>SP_Suicidal urges_A</t>
+  </si>
+  <si>
+    <t>SP_Suicidal urges_C</t>
+  </si>
+  <si>
+    <t>SP_Suicidal behaviors_A</t>
+  </si>
+  <si>
+    <t>SP_Suicidal behaviors_C</t>
+  </si>
+  <si>
+    <t>Santangelo et al., 2017</t>
   </si>
 </sst>
 </file>
@@ -237,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -252,6 +322,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,12 +657,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A9" dT="2020-08-23T06:55:37.73" personId="{B1F5F0C1-7B25-244B-91BA-336BE7047CD5}" id="{443AAAE8-28A5-9449-A869-A6ADAEBFA306}">
+    <text>Selby includes Kranzer et al., Fitzpatrick et al., 2020; Sellby et al, 2013 and Hughes et al (4 studies using 1 dataset)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5C979C-6354-504E-AC51-5389C06BDCBD}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +680,7 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -638,8 +723,44 @@
       <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -653,15 +774,15 @@
         <v>2.5142999999999999E-2</v>
       </c>
       <c r="E2" s="6">
-        <v>0.42006070000000001</v>
+        <v>0.44267079999999998</v>
       </c>
       <c r="F2" s="6">
-        <v>-4.3112350000000001E-3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6">
+        <v>0.14122470000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.55201789999999995</v>
+      </c>
+      <c r="H2" s="7">
         <v>-1.029612</v>
       </c>
       <c r="I2" s="6">
@@ -682,8 +803,44 @@
       <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="6">
+        <v>0.27904030000000002</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.27490360000000003</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.27948319999999999</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.27709440000000002</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.28228389999999998</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.28362340000000003</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.30050759999999999</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0.28015099999999998</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0.2958809</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,7 +862,7 @@
       <c r="G3" s="6">
         <v>0.97713629999999996</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>-0.54386190000000001</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -726,8 +883,44 @@
       <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.190553</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.18427180000000001</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -749,7 +942,7 @@
       <c r="G4" s="6">
         <v>0.98255559999999997</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>4.3840759999999999E-2</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -770,8 +963,44 @@
       <c r="N4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.19092339999999999</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.18450920000000001</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -793,7 +1022,7 @@
       <c r="G5" s="6">
         <v>0.37370320000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>9.3177880000000005E-2</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -814,8 +1043,44 @@
       <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.12841859999999999</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0.1224235</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -837,7 +1102,7 @@
       <c r="G6" s="6">
         <v>1.359405</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>-0.84524520000000003</v>
       </c>
       <c r="I6" s="6">
@@ -858,28 +1123,124 @@
       <c r="N6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="6">
+        <v>0.1849587</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.1859731</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.19890340000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0.20766039999999999</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0.18259800000000001</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.18900210000000001</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>62</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.4068130000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4.7752849999999999E-2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.96318890000000001</v>
+      </c>
+      <c r="L7" s="6">
+        <v>8.3232319999999999E-2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.21705998260869561</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.21705998260869561</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.21705998260869561</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.21705998260869561</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -901,7 +1262,7 @@
       <c r="G8" s="6">
         <v>1.001663</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>-6.950452E-2</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -922,10 +1283,46 @@
       <c r="N8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.19381870000000001</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0.1954745</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6">
         <v>47</v>
@@ -945,7 +1342,7 @@
       <c r="G9" s="6">
         <v>0.1589892</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>-1.863424E-2</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -966,8 +1363,44 @@
       <c r="N9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="6">
+        <v>0.1851949</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.1858659</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.19109229999999999</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0.19204099999999999</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -989,7 +1422,7 @@
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="6">
@@ -1010,8 +1443,44 @@
       <c r="N10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0.15347259999999999</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0.16346279999999999</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1502,7 @@
       <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="6">
@@ -1054,8 +1523,44 @@
       <c r="N11" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.18531120000000001</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.19954150000000001</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1582,7 @@
       <c r="G12" s="6">
         <v>0.89073190000000002</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>0.25693670000000002</v>
       </c>
       <c r="I12" s="6">
@@ -1098,198 +1603,341 @@
       <c r="N12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.26650119999999999</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.2830278</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.25292510000000001</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.2830278</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
-        <v>74</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.98382639999999999</v>
+      </c>
+      <c r="J13" s="6">
+        <v>-3.4871470000000002E-2</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.24336930000000001</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.25019609999999998</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6">
-        <v>162</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.75629590000000002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.048018E-2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-0.12993289999999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-0.104045</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.9639420000000001</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-4.8485880000000002E-2</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.19245010000000001</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.18299579999999999</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0.20089689999999999</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0.19703889999999999</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0.20224719999999999</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0.19895650000000001</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.98382639999999999</v>
-      </c>
-      <c r="J16" s="6">
-        <v>-3.4871470000000002E-2</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.75629590000000002</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.048018E-2</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6">
-        <v>-0.12993289999999999</v>
-      </c>
-      <c r="H17" s="6">
-        <v>-0.104045</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1.9639420000000001</v>
-      </c>
-      <c r="J17" s="6">
-        <v>-4.8485880000000002E-2</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="6">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6">
         <v>73</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6">
         <v>1.0822769999999999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H15" s="7">
         <v>-0.21463869999999999</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.19026670000000001</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0.1874209</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1304,7 +1952,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1319,147 +1967,1181 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6273BB-451A-5A44-9E69-5B04167AE5BE}">
+  <dimension ref="A1:Z25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6">
-        <f>SUM(B2,B3,B4,B5,B6,,B8, B9, B10,B11,, B12, B16, B17, B18)</f>
-        <v>974</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!C2)+('meta data'!C2^2)))</f>
+        <v>33.966570796264726</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!D2)+('meta data'!D2^2)))</f>
+        <v>44.701179397561731</v>
+      </c>
+      <c r="E2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!E2)+('meta data'!E2^2)))</f>
+        <v>26.438009519583357</v>
+      </c>
+      <c r="F2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!F2)+('meta data'!F2^2)))</f>
+        <v>24.275606764129439</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!G2)+('meta data'!G2^2)))</f>
+        <v>23.265869065099036</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!H2)+('meta data'!H2^2)))</f>
+        <v>15.719945703195899</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!I2)+('meta data'!I2^2)))</f>
+        <v>51.286627927100966</v>
+      </c>
+      <c r="J2" s="5">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!J2)+('meta data'!J2^2)))</f>
+        <v>32.908841431725484</v>
+      </c>
+      <c r="K2" s="5">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!K2)+('meta data'!K2^2)))</f>
+        <v>27.701477877019816</v>
+      </c>
+      <c r="L2" s="5">
+        <f>(2*'meta data'!B2)/((4*(1-'Invariance weights'!L2)+('meta data'!L2^2)))</f>
+        <v>34.026260000873769</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
+        <f>C2*'meta data'!C2</f>
+        <v>14.436753842366043</v>
+      </c>
+      <c r="P2" s="1">
+        <f>D2*'meta data'!D2</f>
+        <v>1.1239217535928945</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>E2*'meta data'!E2</f>
+        <v>11.70333482444158</v>
+      </c>
+      <c r="R2" s="1">
+        <f>F2*'meta data'!F2</f>
+        <v>3.428315282582151</v>
+      </c>
+      <c r="S2" s="1">
+        <f>G2*'meta data'!G2</f>
+        <v>12.843176182990932</v>
+      </c>
+      <c r="T2" s="1">
+        <f>H2*'meta data'!H2</f>
+        <v>-16.185444735358935</v>
+      </c>
+      <c r="U2" s="1">
+        <f>I2*'meta data'!I2</f>
+        <v>10.470919004748191</v>
+      </c>
+      <c r="V2" s="1">
+        <f>J2*'meta data'!J2</f>
+        <v>8.8214156897067504</v>
+      </c>
+      <c r="W2" s="1">
+        <f>K2*'meta data'!K2</f>
+        <v>2.3412981615252715</v>
+      </c>
+      <c r="X2" s="1">
+        <f>L2*'meta data'!L2</f>
+        <v>6.2868449159314412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f>(2*'meta data'!B3)/((4*(1-'Invariance weights'!G3)+('meta data'!G3^2)))</f>
+        <v>12.486035956904306</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(2*'meta data'!B3)/((4*(1-'Invariance weights'!H3)+('meta data'!H3^2)))</f>
+        <v>8.1433455131479437</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1">
+        <f>G3*'meta data'!G3</f>
+        <v>12.200558976596433</v>
+      </c>
+      <c r="T3" s="1">
+        <f>H3*'meta data'!H3</f>
+        <v>-4.4288553631371155</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f>(2*'meta data'!B4)/((4*(1-'Invariance weights'!G4)+('meta data'!G4^2)))</f>
+        <v>11.127151709922083</v>
+      </c>
+      <c r="H4" s="1">
+        <f>(2*'meta data'!B4)/((4*(1-'Invariance weights'!H4)+('meta data'!H4^2)))</f>
+        <v>26.5518821456977</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1">
+        <f>G4*'meta data'!G4</f>
+        <v>10.933045224633519</v>
+      </c>
+      <c r="T4" s="1">
+        <f>H4*'meta data'!H4</f>
+        <v>1.1640546926978179</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <f>(2*'meta data'!B5)/((4*(1-'Invariance weights'!G5)+('meta data'!G5^2)))</f>
+        <v>58.09758248725835</v>
+      </c>
+      <c r="H5" s="1">
+        <f>(2*'meta data'!B5)/((4*(1-'Invariance weights'!H5)+('meta data'!H5^2)))</f>
+        <v>116.54082021579453</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1">
+        <f>G5*'meta data'!G5</f>
+        <v>21.711252487752404</v>
+      </c>
+      <c r="T5" s="1">
+        <f>H5*'meta data'!H5</f>
+        <v>10.859026561168877</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <f>(2*'meta data'!B6)/((4*(1-'Invariance weights'!C6)+('meta data'!C6^2)))</f>
+        <v>24.726244644893615</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(2*'meta data'!B6)/((4*(1-'Invariance weights'!D6)+('meta data'!D6^2)))</f>
+        <v>28.037204598002564</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f>(2*'meta data'!B6)/((4*(1-'Invariance weights'!G6)+('meta data'!G6^2)))</f>
+        <v>19.477810060145387</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(2*'meta data'!B6)/((4*(1-'Invariance weights'!H6)+('meta data'!H6^2)))</f>
+        <v>25.453715403593872</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(2*'meta data'!B6)/((4*(1-'Invariance weights'!I6)+('meta data'!I6^2)))</f>
+        <v>30.713870106139474</v>
+      </c>
+      <c r="J6" s="5">
+        <f>(2*'meta data'!B6)/((4*(1-'Invariance weights'!J6)+('meta data'!J6^2)))</f>
+        <v>48.97362972499905</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <f>C6*'meta data'!C6</f>
+        <v>10.288701664841135</v>
+      </c>
+      <c r="P6" s="1">
+        <f>D6*'meta data'!D6</f>
+        <v>-0.14638788068429559</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1">
+        <f>G6*'meta data'!G6</f>
+        <v>26.478232384811939</v>
+      </c>
+      <c r="T6" s="1">
+        <f>H6*'meta data'!H6</f>
+        <v>-21.514630767053784</v>
+      </c>
+      <c r="U6" s="1">
+        <f>I6*'meta data'!I6</f>
+        <v>23.476883748510254</v>
+      </c>
+      <c r="V6" s="1">
+        <f>J6*'meta data'!J6</f>
+        <v>-4.040685387963495</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>(2*'meta data'!B7)/((4*(1-'Invariance weights'!E7)+('meta data'!E7^2)))</f>
+        <v>20.738828051513313</v>
+      </c>
+      <c r="F7" s="1">
+        <f>(2*'meta data'!B7)/((4*(1-'Invariance weights'!F7)+('meta data'!F7^2)))</f>
+        <v>30.982337475322701</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <f>(2*'meta data'!B7)/((4*(1-'Invariance weights'!K7)+('meta data'!K7^2)))</f>
+        <v>24.526728017970328</v>
+      </c>
+      <c r="L7" s="1">
+        <f>(2*'meta data'!B7)/((4*(1-'Invariance weights'!L7)+('meta data'!L7^2)))</f>
+        <v>31.706057930938918</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <f>E7*'meta data'!E7</f>
+        <v>29.175652907633598</v>
+      </c>
+      <c r="R7" s="1">
+        <f>F7*'meta data'!F7</f>
+        <v>1.4794949141084637</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
+        <f>K7*'meta data'!K7</f>
+        <v>23.62387218022802</v>
+      </c>
+      <c r="X7" s="1">
+        <f>L7*'meta data'!L7</f>
+        <v>2.6389687596464459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>(2*'meta data'!B8)/((4*(1-'Invariance weights'!G9)+('meta data'!G8^2)))</f>
+        <v>17.300991044140282</v>
+      </c>
+      <c r="H9" s="1">
+        <f>(2*'meta data'!B8)/((4*(1-'Invariance weights'!H9)+('meta data'!H8^2)))</f>
+        <v>11.742908929508564</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
+        <f>G9*'meta data'!G8</f>
+        <v>17.329762592246688</v>
+      </c>
+      <c r="T9" s="1">
+        <f>H9*'meta data'!H8</f>
+        <v>-0.8161852485492066</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(2*'meta data'!B9)/((4*(1-'Invariance weights'!C10)+('meta data'!C9^2)))</f>
+        <v>23.184033117572781</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(2*'meta data'!B9)/((4*(1-'Invariance weights'!D10)+('meta data'!D9^2)))</f>
+        <v>23.188635970109857</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>(2*'meta data'!B9)/((4*(1-'Invariance weights'!G10)+('meta data'!G9^2)))</f>
+        <v>21.185199372174328</v>
+      </c>
+      <c r="H10" s="1">
+        <f>(2*'meta data'!B9)/((4*(1-'Invariance weights'!H10)+('meta data'!H9^2)))</f>
+        <v>22.267931205045496</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <f>C10*'meta data'!C9</f>
+        <v>4.2281416717511009</v>
+      </c>
+      <c r="P10" s="1">
+        <f>D10*'meta data'!D9</f>
+        <v>0.52823388099006674</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <f>G10*'meta data'!G9</f>
+        <v>3.3682179000224988</v>
+      </c>
+      <c r="T10" s="1">
+        <f>H10*'meta data'!H9</f>
+        <v>-0.41494597437830699</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>191</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <f>(2*'meta data'!B10)/((4*(1-'Invariance weights'!I11)+('meta data'!I10^2)))</f>
+        <v>81.425761000827691</v>
+      </c>
+      <c r="J11" s="5">
+        <f>(2*'meta data'!B10)/((4*(1-'Invariance weights'!J11)+('meta data'!J10^2)))</f>
+        <v>83.771427256776505</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
+        <f>I11*'meta data'!I10</f>
+        <v>70.626571737179717</v>
+      </c>
+      <c r="V11" s="1">
+        <f>J11*'meta data'!J10</f>
+        <v>2.3553878167504241</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>193</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <f>(2*'meta data'!B11)/((4*(1-'Invariance weights'!I12)+('meta data'!I11^2)))</f>
+        <v>77.370136946231938</v>
+      </c>
+      <c r="J12" s="5">
+        <f>(2*'meta data'!B11)/((4*(1-'Invariance weights'!J12)+('meta data'!J11^2)))</f>
+        <v>100.92318841236762</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
+        <f>I12*'meta data'!I11</f>
+        <v>78.6347518346181</v>
+      </c>
+      <c r="V12" s="1">
+        <f>J12*'meta data'!J11</f>
+        <v>-5.3497827960294524</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <f>(2*'meta data'!B12)/((4*(1-'Invariance weights'!G13)+('meta data'!G12^2)))</f>
+        <v>18.740116736244275</v>
+      </c>
+      <c r="H13" s="5">
+        <f>(2*'meta data'!B12)/((4*(1-'Invariance weights'!H13)+('meta data'!H12^2)))</f>
+        <v>16.723985389237129</v>
+      </c>
+      <c r="I13" s="1">
+        <f>(2*'meta data'!B12)/((4*(1-'Invariance weights'!I13)+('meta data'!I12^2)))</f>
+        <v>17.162247643057029</v>
+      </c>
+      <c r="J13" s="5">
+        <f>(2*'meta data'!B12)/((4*(1-'Invariance weights'!J13)+('meta data'!J12^2)))</f>
+        <v>16.999996535336756</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
+        <f>G13*'meta data'!G12</f>
+        <v>16.692419786696661</v>
+      </c>
+      <c r="T13" s="1">
+        <f>H13*'meta data'!H12</f>
+        <v>4.2970056167588035</v>
+      </c>
+      <c r="U13" s="1">
+        <f>I13*'meta data'!I12</f>
+        <v>15.426382402548612</v>
+      </c>
+      <c r="V13" s="1">
+        <f>J13*'meta data'!J12</f>
+        <v>-1.5349171071781194E-2</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>10</v>
-      </c>
-      <c r="H22" s="6">
-        <v>10</v>
-      </c>
-      <c r="I22" s="6">
-        <v>7</v>
-      </c>
-      <c r="J22" s="6">
-        <v>7</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B15" s="6">
+        <v>162</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <f>(2*'meta data'!B13)/((4*(1-'Invariance weights'!I17)+('meta data'!I13^2)))</f>
+        <v>15.821725338224773</v>
+      </c>
+      <c r="J17" s="5">
+        <f>(2*'meta data'!B13)/((4*(1-'Invariance weights'!J17)+('meta data'!J13^2)))</f>
+        <v>19.809330724921132</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
+        <f>I17*'meta data'!I13</f>
+        <v>15.56583108129446</v>
+      </c>
+      <c r="V17" s="1">
+        <f>J17*'meta data'!J13</f>
+        <v>-0.69078048209416554</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <f>(2*'meta data'!B14)/((4*(1-'Invariance weights'!C18)+('meta data'!C14^2)))</f>
+        <v>14.158694452097386</v>
+      </c>
+      <c r="D18" s="1">
+        <f>(2*'meta data'!B14)/((4*(1-'Invariance weights'!D18)+('meta data'!D14^2)))</f>
+        <v>14.748503234863444</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f>(2*'meta data'!B14)/((4*(1-'Invariance weights'!G18)+('meta data'!G14^2)))</f>
+        <v>17.395922292035912</v>
+      </c>
+      <c r="H18" s="1">
+        <f>(2*'meta data'!B14)/((4*(1-'Invariance weights'!H18)+('meta data'!H14^2)))</f>
+        <v>15.329872637311997</v>
+      </c>
+      <c r="I18" s="1">
+        <f>(2*'meta data'!B14)/((4*(1-'Invariance weights'!I18)+('meta data'!I14^2)))</f>
+        <v>7.7060910642833136</v>
+      </c>
+      <c r="J18" s="5">
+        <f>(2*'meta data'!B14)/((4*(1-'Invariance weights'!J18)+('meta data'!J14^2)))</f>
+        <v>15.426779063823098</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <f>C18*'meta data'!C14</f>
+        <v>10.708162563474</v>
+      </c>
+      <c r="P18" s="1">
+        <f>D18*'meta data'!D14</f>
+        <v>0.15456696863195118</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1">
+        <f>G18*'meta data'!G14</f>
+        <v>-2.260302631578873</v>
+      </c>
+      <c r="T18" s="1">
+        <f>H18*'meta data'!H14</f>
+        <v>-1.5949965985491268</v>
+      </c>
+      <c r="U18" s="1">
+        <f>I18*'meta data'!I14</f>
+        <v>15.134315896970699</v>
+      </c>
+      <c r="V18" s="1">
+        <f>J18*'meta data'!J14</f>
+        <v>-0.74798095847503909</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
-        <f>AVERAGE(C2,C6,C9, C17)</f>
-        <v>0.44495042500000004</v>
-      </c>
-      <c r="D25" s="6">
-        <f>AVERAGE(D2,D6,D9, D17)</f>
-        <v>1.3295459749999999E-2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6">
-        <f>AVERAGE(G2:G6,G8,G9,G12, G17, G18)</f>
-        <v>0.74405869999999985</v>
-      </c>
-      <c r="H25" s="6">
-        <f>AVERAGE(H2,H3,H4,H5,H6,H8,H9, H12, H17, H18)</f>
-        <v>-0.24315862200000007</v>
-      </c>
-      <c r="I25" s="6">
-        <f>AVERAGE(I2,I6,I10:I12,I16, I17)</f>
-        <v>0.95698307142857153</v>
-      </c>
-      <c r="J25" s="6">
-        <f>AVERAGE(J2,J6,J10:J12,J16, J17)</f>
-        <v>1.0913838200000001E-2</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>15</v>
+      <c r="B19" s="6">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <f>(2*'meta data'!B15)/((4*(1-'Invariance weights'!G19)+('meta data'!G15^2)))</f>
+        <v>25.88278969416103</v>
+      </c>
+      <c r="H19" s="1">
+        <f>(2*'meta data'!B15)/((4*(1-'Invariance weights'!H19)+('meta data'!H15^2)))</f>
+        <v>32.30953582297721</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
+        <f>G19*'meta data'!G15</f>
+        <v>28.012347981827514</v>
+      </c>
+      <c r="T19" s="1">
+        <f>H19*'meta data'!H15</f>
+        <v>-6.9348767666472577</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C2:C20)</f>
+        <v>96.035543010828519</v>
+      </c>
+      <c r="D24">
+        <f>SUM(D2:D20)</f>
+        <v>110.6755232005376</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E2:E7)</f>
+        <v>47.176837571096669</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F2:F7)</f>
+        <v>55.257944239452144</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G2:G19)</f>
+        <v>224.95946841808498</v>
+      </c>
+      <c r="H24" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>290.78394296551028</v>
+      </c>
+      <c r="I24" s="9">
+        <f>SUM(I2:I18)</f>
+        <v>281.4864600258652</v>
+      </c>
+      <c r="J24" s="9">
+        <f>SUM(J2:J18)</f>
+        <v>318.81319314994971</v>
+      </c>
+      <c r="K24" s="9">
+        <f>SUM(K2:K7)</f>
+        <v>52.22820589499014</v>
+      </c>
+      <c r="L24" s="9">
+        <f>SUM(L2:L7)</f>
+        <v>65.732317931812688</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24">
+        <f>SUM(O2:O18)</f>
+        <v>39.661759742432281</v>
+      </c>
+      <c r="P24">
+        <f>SUM(P2:P20)</f>
+        <v>1.6603347225306169</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(Q2:Q7)</f>
+        <v>40.878987732075174</v>
+      </c>
+      <c r="R24">
+        <f>SUM(R2:R7)</f>
+        <v>4.9078101966906145</v>
+      </c>
+      <c r="S24">
+        <f>SUM(S2:S19)</f>
+        <v>147.30871088599972</v>
+      </c>
+      <c r="T24">
+        <f>SUM(T2:T19)</f>
+        <v>-35.569848583048234</v>
+      </c>
+      <c r="U24">
+        <f>SUM(U2:U18)</f>
+        <v>229.33565570587001</v>
+      </c>
+      <c r="V24">
+        <f>SUM(V2:V18)</f>
+        <v>0.33222471082324112</v>
+      </c>
+      <c r="W24">
+        <f>SUM(W2:W7)</f>
+        <v>25.965170341753293</v>
+      </c>
+      <c r="X24">
+        <f>SUM(X2:X7)</f>
+        <v>8.9258136755778867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" ref="C25:L25" si="0">O24/C24</f>
+        <v>0.41299042520080514</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.5001824021398002E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.86650546829192443</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>8.8816373179272531E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.65482334183075108</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.12232397779703796</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.81473068255146919</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0420670096515845E-3</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49714842577512197</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13579033809270297</v>
       </c>
     </row>
   </sheetData>
@@ -1468,12 +3150,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F0A8E3-0156-0F47-9AC8-954D630965F3}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1530,6 +3212,36 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="1">
+        <v>5.8898440000000003E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.25073709999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.21812570000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.375</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.36369649999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.86602539999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.35722910000000002</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-0.2075359</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.4000770000000001E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1595,135 +3307,187 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>192</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.523683E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.13980919999999999</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-3.9142250000000003E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25073709999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-3.1994040000000001E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f>L2</f>
+        <v>2.4000770000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.0988039999999999E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4.452975E-2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1">
-        <v>9.496071E-3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.5919409999999998E-2</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.1074715</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-5.3136640000000001E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1.3297710000000001E-2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>0.29120600000000002</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.21143909999999999</v>
+        <v>-0.1029456</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-5.5242479999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-0.11737259999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-0.11817999999999999</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>192</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.523683E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.13980919999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-0.1074715</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.0988039999999999E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.452975E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-5.3136640000000001E-3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-1.3297710000000001E-2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1">
-        <v>-0.1029456</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-5.5242479999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.29120600000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.21143909999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9.496071E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.5919409999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C18" s="1">
         <v>8.3576159999999997E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D18" s="1">
         <v>-1.7024899999999999E-2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.14194960000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H18" s="1">
         <v>2.422463E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I18" s="1">
         <v>1.7754880000000001E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J18" s="1">
         <v>2.825254E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.11737259999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-0.11817999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <f>1-G2</f>
+        <v>1.3636965000000001</v>
       </c>
     </row>
   </sheetData>
